--- a/Visuals/OOHDMDA VS WSDMDA.xlsx
+++ b/Visuals/OOHDMDA VS WSDMDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomco\Documents\Predmety VŠ\Metódy Inžinierskej práce\Článok\Visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C4185B-F149-47E8-93D7-230738019D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C52A02F-75EB-4411-833D-F66DF413A2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5EE74F5F-9A49-470F-9E7A-405816D1ECBB}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{5EE74F5F-9A49-470F-9E7A-405816D1ECBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Kritérium</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Prerába koncepčný model WSDM na PIM po pridaní používateľského profilu</t>
-  </si>
-  <si>
-    <t>WSDM</t>
-  </si>
-  <si>
-    <t>OOHDM</t>
   </si>
   <si>
     <t>Prerába objektový model OOHDM na PIM po pridaní BMS (Behavioral Semantics Model)</t>
@@ -605,7 +599,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,11 +627,13 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
+      <c r="C3" s="12" t="str">
+        <f>SUBSTITUTE(C2,"DA","")</f>
+        <v>OOHDM</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>SUBSTITUTE(D2,"DA","")</f>
+        <v>WSDM</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="69" x14ac:dyDescent="0.3">
@@ -645,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>7</v>
@@ -656,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -667,10 +663,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
